--- a/铝/data_input/氧化铝价格拟合残差_总库存_api.xlsx
+++ b/铝/data_input/氧化铝价格拟合残差_总库存_api.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3387"/>
+  <dimension ref="A1:H3389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53833,7 +53833,9 @@
       <c r="A3384" s="2" t="n">
         <v>45951</v>
       </c>
-      <c r="B3384" t="inlineStr"/>
+      <c r="B3384" t="n">
+        <v>188.3049</v>
+      </c>
       <c r="C3384" t="inlineStr"/>
       <c r="D3384" t="n">
         <v>68.38</v>
@@ -53853,7 +53855,9 @@
       <c r="A3385" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="B3385" t="inlineStr"/>
+      <c r="B3385" t="n">
+        <v>210.3049</v>
+      </c>
       <c r="C3385" t="inlineStr"/>
       <c r="D3385" t="n">
         <v>62.9</v>
@@ -53873,7 +53877,9 @@
       <c r="A3386" s="2" t="n">
         <v>45953</v>
       </c>
-      <c r="B3386" t="inlineStr"/>
+      <c r="B3386" t="n">
+        <v>215.3049</v>
+      </c>
       <c r="C3386" t="inlineStr"/>
       <c r="D3386" t="n">
         <v>57.18</v>
@@ -53893,17 +53899,69 @@
       <c r="A3387" s="2" t="n">
         <v>45954</v>
       </c>
-      <c r="B3387" t="inlineStr"/>
+      <c r="B3387" t="n">
+        <v>230.8623</v>
+      </c>
       <c r="C3387" t="n">
         <v>186.2</v>
       </c>
       <c r="D3387" t="n">
         <v>46.47</v>
       </c>
-      <c r="E3387" t="inlineStr"/>
-      <c r="F3387" t="inlineStr"/>
-      <c r="G3387" t="inlineStr"/>
-      <c r="H3387" t="inlineStr"/>
+      <c r="E3387" t="n">
+        <v>-27.6</v>
+      </c>
+      <c r="F3387" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="G3387" t="n">
+        <v>-25.25</v>
+      </c>
+      <c r="H3387" t="n">
+        <v>412.03</v>
+      </c>
+    </row>
+    <row r="3388">
+      <c r="A3388" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3388" t="n">
+        <v>242.8623</v>
+      </c>
+      <c r="C3388" t="inlineStr"/>
+      <c r="D3388" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="E3388" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="F3388" t="n">
+        <v>-17.8</v>
+      </c>
+      <c r="G3388" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="H3388" t="inlineStr"/>
+    </row>
+    <row r="3389">
+      <c r="A3389" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3389" t="inlineStr"/>
+      <c r="C3389" t="inlineStr"/>
+      <c r="D3389" t="n">
+        <v>45.32</v>
+      </c>
+      <c r="E3389" t="n">
+        <v>-28.8</v>
+      </c>
+      <c r="F3389" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G3389" t="n">
+        <v>-21.45</v>
+      </c>
+      <c r="H3389" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
